--- a/template.xlsx
+++ b/template.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dati_generali_procedura" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="protocolli_procedura" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="riferimenti_normativi_privacy" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="generazione_offerte" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="generazioni_offerte" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="schema_generale_procedura" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -31,6 +30,9 @@
     <t xml:space="preserve">variabili</t>
   </si>
   <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -121,6 +123,12 @@
     <t xml:space="preserve">Pagina URP</t>
   </si>
   <si>
+    <t xml:space="preserve">Ulteriori riferimenti normativi attuativi e operativi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variabile {{ ulteriori _riferimenti_normativi_attuativi_operativi}} </t>
+  </si>
+  <si>
     <t xml:space="preserve">Passaggio</t>
   </si>
   <si>
@@ -130,9 +138,6 @@
     <t xml:space="preserve">template</t>
   </si>
   <si>
-    <t xml:space="preserve">flag</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preparazione documenti</t>
   </si>
   <si>
@@ -218,9 +223,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variabile {{ ulteriori _riferimenti_normativi_attuativi_operativi}} </t>
   </si>
   <si>
     <t xml:space="preserve">nome_ditta</t>
@@ -359,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,11 +378,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,6 +488,48 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>421560</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Immagine 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72000" y="83520"/>
+          <a:ext cx="8477640" cy="9951480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,15 +643,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="80.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.34"/>
@@ -613,32 +661,36 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2025</v>
@@ -646,125 +698,365 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="8" t="str">
         <f aca="false">CONCATENATE(C5," ",C7)</f>
         <v>Marco Morabito</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="8" t="str">
         <f aca="false">CONCATENATE(C10," ",C11)</f>
         <v>Francesco Sabatini</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="n">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <v>15600</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -782,204 +1074,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.66"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -998,26 +1106,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.34"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1025,37 +1121,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="dati_generali_procedura" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -33,6 +33,9 @@
     <t xml:space="preserve">flag</t>
   </si>
   <si>
+    <t xml:space="preserve">nome_variabili</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -42,15 +45,24 @@
     <t xml:space="preserve">C:\aaa_lavori\</t>
   </si>
   <si>
+    <t xml:space="preserve">cartella_assoluta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cartella di lavoro modelli docx</t>
   </si>
   <si>
     <t xml:space="preserve">C:\aaa_lavori\template_docx</t>
   </si>
   <si>
+    <t xml:space="preserve">cartella_template</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anno procedura</t>
   </si>
   <si>
+    <t xml:space="preserve">anno_procedura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nome Richiedente</t>
   </si>
   <si>
@@ -75,6 +87,21 @@
     <t xml:space="preserve">Primo Ricercatore</t>
   </si>
   <si>
+    <t xml:space="preserve">qualifica_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_cognome_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail contatto richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marco.morabito@cnr.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_contatto_richiedente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nome RUP</t>
   </si>
   <si>
@@ -84,6 +111,9 @@
     <t xml:space="preserve">Sabatini</t>
   </si>
   <si>
+    <t xml:space="preserve">nome_cognome_RUP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cartella di generazione documenti</t>
   </si>
   <si>
@@ -93,40 +123,94 @@
     <t xml:space="preserve">WORKLIMATE</t>
   </si>
   <si>
+    <t xml:space="preserve">acronimo_progetto</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUP progetto</t>
   </si>
   <si>
+    <t xml:space="preserve">numero_CUP</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID progetto ( ex GAE)</t>
   </si>
   <si>
     <t xml:space="preserve">ADB</t>
   </si>
   <si>
+    <t xml:space="preserve">protocollo_rda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tipo</t>
   </si>
   <si>
     <t xml:space="preserve">fornitura</t>
   </si>
   <si>
+    <t xml:space="preserve">servizio_fornitura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oggetto della fornitura</t>
   </si>
   <si>
     <t xml:space="preserve">Acquisto di 10 PC</t>
   </si>
   <si>
+    <t xml:space="preserve">oggetto_servizio_fornitura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oggetto esteso fornitura</t>
   </si>
   <si>
     <t xml:space="preserve">Acquisto di 10 PC comprensivi di software e corredati da accessori con le seguenti caratteristiche</t>
   </si>
   <si>
+    <t xml:space="preserve">oggetto_esteso_servizio_fornitura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pagina URP</t>
   </si>
   <si>
+    <t xml:space="preserve">pagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prestazione_servizio_fornitura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ulteriori riferimenti normativi attuativi e operativi</t>
   </si>
   <si>
-    <t xml:space="preserve">Variabile {{ ulteriori _riferimenti_normativi_attuativi_operativi}} </t>
+    <t xml:space="preserve">ulteriori _riferimenti_normativi_attuativi_operativi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_ditta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirizzo_ditta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap_ditta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pec_ditta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pincopallino srl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via firenze 301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pincop@pec.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via firenze 302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">via firenze 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via firenze 304</t>
   </si>
   <si>
     <t xml:space="preserve">Passaggio</t>
@@ -138,27 +222,6 @@
     <t xml:space="preserve">template</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparazione documenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD_infra_40k_AvvisoIndagine_servizio_NINT.docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD_infra_40k_AvvisoIndagine_FOR.docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD_infra_40k_AvvisoIndagine_MEPA_servizio.docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD_infra_40k_AvvisoIndagine_MEPA_FOR.docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD_infra_40k_InformativaPrivacy.docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD_infra_40k_OE-DSANPossessoRequisiti.docx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Relazione tecnica – Relazione di approvvigionamento con preventivi </t>
   </si>
   <si>
@@ -223,12 +286,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nome_ditta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indirizzo_ditta</t>
   </si>
 </sst>
 </file>
@@ -238,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -283,13 +340,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +364,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
         <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -361,7 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -402,6 +460,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -411,10 +477,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,9 +563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>421560</xdr:colOff>
+      <xdr:colOff>418320</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -517,7 +579,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8477640" cy="9951480"/>
+          <a:ext cx="8474400" cy="9948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -643,10 +705,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,6 +717,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="80.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,64 +731,79 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2025</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,332 +811,313 @@
         <f aca="false">CONCATENATE(C5," ",C7)</f>
         <v>Marco Morabito</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="8" t="str">
-        <f aca="false">CONCATENATE(C10," ",C11)</f>
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="8" t="str">
+        <f aca="false">CONCATENATE(C11," ",C12)</f>
         <v>Francesco Sabatini</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8" t="n">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <v>15600</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="E45" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0"/>
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0"/>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0"/>
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="marco.morabito@cnr.it"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1074,23 +1133,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.05"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>59124</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>59124</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>59124</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>59124</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="pincop@pec.it"/>
+    <hyperlink ref="D3" r:id="rId2" display="pincop@pec.it"/>
+    <hyperlink ref="D4" r:id="rId3" display="pincop@pec.it"/>
+    <hyperlink ref="D5" r:id="rId4" display="pincop@pec.it"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1106,14 +1238,249 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A64:F86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="186">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">nome_variabili</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cartella di lavoro assoluta</t>
   </si>
   <si>
@@ -60,28 +57,268 @@
     <t xml:space="preserve">Anno procedura</t>
   </si>
   <si>
-    <t xml:space="preserve">anno_procedura</t>
+    <t xml:space="preserve">data_oggi</t>
   </si>
   <si>
     <t xml:space="preserve">Nome Richiedente</t>
   </si>
   <si>
-    <t xml:space="preserve">Marco</t>
+    <t xml:space="preserve">data_rda</t>
   </si>
   <si>
     <t xml:space="preserve">Sede IBE procedura</t>
   </si>
   <si>
+    <t xml:space="preserve">data_scadenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognome Richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> servizio_fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualifica Richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descrizione_servizio_fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer da tavolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breve_descrizione_caratteristiche_prestazioni_acquisizione_ bene_servizio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail contatto richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breve_descrizione_motivazione_acquisizione_ bene_servizio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisto di 10 PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oggetto_fornitura_servizio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisto di 10 PC comprensivi di software e corredati da accessori con le seguenti caratteristiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oggetto_esteso_fornitura_servizio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clausola_cam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartella di generazione documenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clausola_servizi_fornitura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_deroga_MEPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_mancata_consip_informatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUP progetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_valore_affidamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID progetto ( ex GAE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_motivo_deroga_principio_rotazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importo_massimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oggetto della fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKLIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acronimo_progetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oggetto esteso fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numero_CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina URP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero_CIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consiglio Nazionale delle Ricerche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referente_stazione_appaltante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBAXXXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DBA_progetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beni_servizi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMERO_CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACRONIMO_PROGETTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORNITURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORNITURA_SERVIZIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voce_piano_dei_conti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importo_oneri_sicurezza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importo_oneri_personale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero_COAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisto materiali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voce_costo_COAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">codice_CPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piattaforma_scelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riferimento_PAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codice_ateco_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codice_ateco_OE_sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codice_ateco_OE_dich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pincopallino1 SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_individuazione_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via firenza 346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirizzo_OE_scelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amedeo Righi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legale_rap_OE_scelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firenze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sede_OE_scelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piva_OE_scelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> codice_CNEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estratti_CNEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Morabito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nome_cognome_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data_nascita_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luogo_nascita_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCCCCCCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF_richiedente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sesto Fiorentino</t>
   </si>
   <si>
-    <t xml:space="preserve">Cognome Richiedente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morabito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualifica Richiedente</t>
+    <t xml:space="preserve">sede_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> firma_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> img_documento_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_partecipazione_associazioni_organizzazioni_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_contatto_richiedente</t>
   </si>
   <si>
     <t xml:space="preserve">Primo Ricercatore</t>
@@ -90,112 +327,160 @@
     <t xml:space="preserve">qualifica_richiedente</t>
   </si>
   <si>
-    <t xml:space="preserve">nome_cognome_richiedente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail contatto richiedente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marco.morabito@cnr.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mail_contatto_richiedente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome RUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francesco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nome_cognome_RUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartella di generazione documenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKLIMATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acronimo_progetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUP progetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numero_CUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID progetto ( ex GAE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocollo_rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servizio_fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oggetto della fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisto di 10 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oggetto_servizio_fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oggetto esteso fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisto di 10 PC comprensivi di software e corredati da accessori con le seguenti caratteristiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oggetto_esteso_servizio_fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagina URP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pagina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prestazione_servizio_fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulteriori riferimenti normativi attuativi e operativi</t>
+    <t xml:space="preserve">Francesco Sabatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nome_cognome_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data_nascita_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luogo_nascita_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDDDDDDDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senso Fiorentino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sede_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> firma_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> img_documento_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_partecipazione_associazioni_organizzazioni_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">francesco.sabatini@cnr.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_contatto_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nome_cognome_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data_nascita_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luogo_nascita_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sede_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> firma_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> img_documento_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_partecipazione_associazioni_organizzazioni_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_contatto_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nome_cognome_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data_nascita_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luogo_nascita_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sede_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> firma_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> img_documento_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_partecipazione_associazioni_organizzazioni_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_contatto_RSS</t>
   </si>
   <si>
     <t xml:space="preserve">ulteriori _riferimenti_normativi_attuativi_operativi</t>
   </si>
   <si>
-    <t xml:space="preserve">nome_ditta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indirizzo_ditta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cap_ditta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pec_ditta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pincopallino srl</t>
+    <t xml:space="preserve">protocollo_RDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_richiesta_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_nomina_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_conflittoint_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_conflittoint_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_conflittoint_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_allegato2_CIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_istruttoria_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_DAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocollo_ordine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirizzo_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pec_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNEL_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice_ATECO_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pincopallino1 srl</t>
   </si>
   <si>
     <t xml:space="preserve">via firenze 301 </t>
@@ -204,10 +489,19 @@
     <t xml:space="preserve">pincop@pec.it</t>
   </si>
   <si>
+    <t xml:space="preserve">pincopallino2 srl</t>
+  </si>
+  <si>
     <t xml:space="preserve">via firenze 302 </t>
   </si>
   <si>
+    <t xml:space="preserve">pincopallino3 srl</t>
+  </si>
+  <si>
     <t xml:space="preserve">via firenze 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pincopallino4 srl</t>
   </si>
   <si>
     <t xml:space="preserve">via firenze 304</t>
@@ -292,10 +586,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -339,8 +634,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -352,8 +654,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +691,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFB66C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
@@ -375,7 +728,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFFAA95"/>
       </patternFill>
     </fill>
     <fill>
@@ -419,7 +772,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,39 +797,83 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,7 +893,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -505,7 +902,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -526,15 +923,15 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -563,9 +960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:colOff>417600</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -579,7 +976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8474400" cy="9948240"/>
+          <a:ext cx="8473680" cy="9947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,19 +1102,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="80.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="59.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="76.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,197 +1131,205 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="7" t="n">
+        <f aca="true">TODAY()</f>
+        <v>45843</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="9" t="n">
+        <f aca="false">C4+4</f>
+        <v>45847</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="9" t="n">
+        <f aca="false">C5+45</f>
+        <v>45892</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10"/>
+      <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="8" t="str">
-        <f aca="false">CONCATENATE(C5," ",C7)</f>
-        <v>Marco Morabito</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="0"/>
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="8" t="str">
-        <f aca="false">CONCATENATE(C11," ",C12)</f>
-        <v>Francesco Sabatini</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="10"/>
+      <c r="E15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>15600</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C16" s="10"/>
+      <c r="E16" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="13"/>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="13" t="n">
+        <v>1222222</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -932,191 +1337,504 @@
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="C23" s="2" t="n">
+        <v>3222223</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="1" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="11" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="E25" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2" t="n">
+        <v>23232322</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="2" t="n">
+        <v>12334</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="2" t="n">
+        <v>234444</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="2" t="n">
+        <v>12344444</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-      <c r="B48" s="0"/>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0"/>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0"/>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
-      <c r="B68" s="0"/>
-      <c r="C68" s="0"/>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
+      <c r="E46" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="7" t="n">
+        <v>26146</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="7" t="n">
+        <v>25153</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="marco.morabito@cnr.it"/>
+    <hyperlink ref="C68" r:id="rId1" display="francesco.sabatini@cnr.it"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1133,10 +1851,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1148,72 +1866,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>56</v>
+        <v>147</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
+      <c r="D2" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>59</v>
+      <c r="D3" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>59</v>
+      <c r="D4" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>59</v>
+      <c r="D5" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1248,21 +1972,21 @@
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
-        <v>66</v>
+      <c r="A65" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1271,8 +1995,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>67</v>
+      <c r="A66" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1281,8 +2005,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>68</v>
+      <c r="A67" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1292,7 +2016,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1301,8 +2025,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="s">
-        <v>70</v>
+      <c r="A69" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1311,8 +2035,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="s">
-        <v>71</v>
+      <c r="A70" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1322,7 +2046,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1332,7 +2056,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1342,7 +2066,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1351,8 +2075,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
-        <v>75</v>
+      <c r="A74" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1362,7 +2086,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1371,8 +2095,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
-        <v>77</v>
+      <c r="A76" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1381,8 +2105,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>78</v>
+      <c r="A77" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1392,7 +2116,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1401,8 +2125,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
-        <v>80</v>
+      <c r="A79" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1411,8 +2135,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="s">
-        <v>81</v>
+      <c r="A80" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1422,7 +2146,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1432,7 +2156,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1442,7 +2166,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1451,8 +2175,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
-        <v>85</v>
+      <c r="A84" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1462,7 +2186,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1472,7 +2196,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="190">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -318,6 +318,9 @@
     <t xml:space="preserve">dichiarazioni_partecipazione_associazioni_organizzazioni_richiedente</t>
   </si>
   <si>
+    <t xml:space="preserve">marco.morabito@cnr.it</t>
+  </si>
+  <si>
     <t xml:space="preserve">mail_contatto_richiedente</t>
   </si>
   <si>
@@ -369,6 +372,9 @@
     <t xml:space="preserve">mail_contatto_RUP</t>
   </si>
   <si>
+    <t xml:space="preserve">Ing. Beniamino Gioli</t>
+  </si>
+  <si>
     <t xml:space="preserve"> nome_cognome_direttore</t>
   </si>
   <si>
@@ -396,6 +402,9 @@
     <t xml:space="preserve">dichiarazioni_partecipazione_associazioni_organizzazioni_direttore</t>
   </si>
   <si>
+    <t xml:space="preserve">direttore@ibe.cnr.it</t>
+  </si>
+  <si>
     <t xml:space="preserve">mail_contatto_direttore</t>
   </si>
   <si>
@@ -430,6 +439,9 @@
   </si>
   <si>
     <t xml:space="preserve">ulteriori _riferimenti_normativi_attuativi_operativi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url_gara</t>
   </si>
   <si>
     <t xml:space="preserve">protocollo_RDA</t>
@@ -590,7 +602,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -635,16 +647,16 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -652,13 +664,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -772,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -801,11 +806,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -817,15 +826,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -833,15 +842,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,11 +854,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -861,7 +862,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,9 +961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>416160</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -976,7 +977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8473680" cy="9947520"/>
+          <a:ext cx="8472240" cy="9946080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,10 +1103,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1139,7 +1140,7 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1150,7 +1151,7 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2"/>
@@ -1159,11 +1160,11 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <f aca="true">TODAY()</f>
-        <v>45843</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>45844</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1171,11 +1172,11 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <f aca="false">C4+4</f>
-        <v>45847</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>45848</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1183,11 +1184,11 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <f aca="false">C5+45</f>
-        <v>45892</v>
-      </c>
-      <c r="E6" s="8" t="s">
+        <v>45893</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1195,10 +1196,10 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1206,16 +1207,16 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1223,8 +1224,8 @@
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="0"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="1"/>
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1235,7 +1236,7 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1246,13 +1247,13 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="10"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="11"/>
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1260,14 +1261,14 @@
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="11"/>
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="10"/>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="11"/>
+      <c r="E15" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1275,8 +1276,8 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="11"/>
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1284,8 +1285,8 @@
       <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="11"/>
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1293,12 +1294,12 @@
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1306,8 +1307,7 @@
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1318,29 +1318,29 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="2" t="n">
         <v>1222222</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3222223</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1364,23 +1364,25 @@
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="n">
-        <v>23232322</v>
-      </c>
-      <c r="E27" s="11" t="s">
+        <f aca="false">C22</f>
+        <v>1222222</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="11" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2" t="str">
+        <f aca="false">C21</f>
+        <v>WORKLIMATE</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1388,22 +1390,22 @@
       <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1411,7 +1413,7 @@
       <c r="C33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1419,7 +1421,7 @@
       <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1427,7 +1429,7 @@
       <c r="C35" s="2" t="n">
         <v>12334</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1435,12 +1437,12 @@
       <c r="C36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1448,17 +1450,17 @@
       <c r="C38" s="2" t="n">
         <v>234444</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1466,7 +1468,7 @@
       <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1474,7 +1476,7 @@
       <c r="C42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1482,7 +1484,7 @@
       <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1490,7 +1492,7 @@
       <c r="C44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1498,17 +1500,17 @@
       <c r="C45" s="2" t="n">
         <v>12344444</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1516,15 +1518,15 @@
       <c r="C48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="8" t="n">
         <v>26146</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1532,7 +1534,7 @@
       <c r="C50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1540,7 +1542,7 @@
       <c r="C51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1548,293 +1550,291 @@
       <c r="C52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>98</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="16" t="s">
         <v>100</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="17" t="s">
         <v>102</v>
       </c>
+      <c r="E59" s="16" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="7" t="n">
+      <c r="C60" s="8" t="n">
         <v>25153</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>103</v>
+      <c r="E60" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>104</v>
+      <c r="E61" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="17" t="s">
         <v>106</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="17" t="s">
         <v>108</v>
       </c>
+      <c r="E63" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="17" t="s">
-        <v>109</v>
+      <c r="E64" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="17" t="s">
-        <v>110</v>
+      <c r="E65" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="17" t="s">
-        <v>111</v>
+      <c r="E66" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="17" t="s">
-        <v>112</v>
+      <c r="E67" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="17" t="s">
+      <c r="C68" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="E68" s="16" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="19" t="s">
-        <v>115</v>
+      <c r="C69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="19" t="s">
-        <v>116</v>
+      <c r="E70" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="19" t="s">
-        <v>117</v>
+      <c r="E71" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="19" t="s">
-        <v>118</v>
+      <c r="E72" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="19" t="s">
-        <v>119</v>
+      <c r="C73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="19" t="s">
-        <v>120</v>
+      <c r="E74" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="19" t="s">
-        <v>121</v>
+      <c r="E75" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="19" t="s">
-        <v>122</v>
+      <c r="E76" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="19" t="s">
-        <v>123</v>
+      <c r="E77" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="19" t="s">
-        <v>124</v>
+      <c r="C78" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="20" t="s">
-        <v>125</v>
+      <c r="E79" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="20" t="s">
-        <v>126</v>
+      <c r="E80" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="20" t="s">
-        <v>127</v>
+      <c r="E81" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="20" t="s">
-        <v>128</v>
+      <c r="E82" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="20" t="s">
-        <v>129</v>
+      <c r="E83" s="19" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="20" t="s">
-        <v>130</v>
+      <c r="E84" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="20" t="s">
-        <v>131</v>
+      <c r="E85" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="20" t="s">
-        <v>132</v>
+      <c r="E86" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="20" t="s">
-        <v>133</v>
+      <c r="E87" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="20" t="s">
-        <v>134</v>
+      <c r="E88" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="11" t="s">
-        <v>135</v>
+      <c r="E89" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="11" t="s">
-        <v>136</v>
+      <c r="E90" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="11" t="s">
-        <v>137</v>
+      <c r="E91" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="11" t="s">
-        <v>138</v>
+      <c r="E92" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="11" t="s">
-        <v>139</v>
+      <c r="E93" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="11" t="s">
-        <v>140</v>
+      <c r="E94" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="11" t="s">
-        <v>141</v>
+      <c r="E95" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="11" t="s">
-        <v>142</v>
+      <c r="E96" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="11" t="s">
-        <v>143</v>
+      <c r="E97" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="11" t="s">
-        <v>144</v>
+      <c r="E98" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="11" t="s">
-        <v>145</v>
+      <c r="E99" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="0"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="0"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="2"/>
+      <c r="E100" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C68" r:id="rId1" display="francesco.sabatini@cnr.it"/>
+    <hyperlink ref="C57" r:id="rId1" display="marco.morabito@cnr.it"/>
+    <hyperlink ref="C68" r:id="rId2" display="francesco.sabatini@cnr.it"/>
+    <hyperlink ref="C78" r:id="rId3" display="direttore@ibe.cnr.it"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1854,7 +1854,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="E2:E3 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1866,78 +1866,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="21" t="s">
         <v>151</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>154</v>
+      <c r="D2" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>154</v>
+      <c r="D3" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>154</v>
+      <c r="D4" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>154</v>
+      <c r="D5" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1965,28 +1965,28 @@
   <dimension ref="A64:F86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="1" sqref="E2:E3 A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="s">
-        <v>164</v>
+      <c r="A65" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1995,8 +1995,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24" t="s">
-        <v>165</v>
+      <c r="A66" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2005,8 +2005,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25" t="s">
-        <v>166</v>
+      <c r="A67" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2025,8 +2025,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24" t="s">
-        <v>168</v>
+      <c r="A69" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2035,8 +2035,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24" t="s">
-        <v>169</v>
+      <c r="A70" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2075,8 +2075,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="23" t="s">
-        <v>173</v>
+      <c r="A74" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2095,8 +2095,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24" t="s">
-        <v>175</v>
+      <c r="A76" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2105,8 +2105,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="25" t="s">
-        <v>176</v>
+      <c r="A77" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2125,8 +2125,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="25" t="s">
-        <v>178</v>
+      <c r="A79" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2135,8 +2135,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24" t="s">
-        <v>179</v>
+      <c r="A80" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2175,8 +2175,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="24" t="s">
-        <v>183</v>
+      <c r="A84" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -36,24 +36,6 @@
     <t xml:space="preserve">nome_variabili</t>
   </si>
   <si>
-    <t xml:space="preserve">Cartella di lavoro assoluta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\aaa_lavori\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cartella_assoluta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartella di lavoro modelli docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\aaa_lavori\template_docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cartella_template</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anno procedura</t>
   </si>
   <si>
@@ -232,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve">piattaforma_scelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bando_MEPA</t>
   </si>
   <si>
     <t xml:space="preserve">riferimento_PAD</t>
@@ -602,7 +587,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -639,10 +624,9 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -653,22 +637,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -777,7 +747,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,59 +772,51 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -862,7 +824,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -941,7 +903,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -961,9 +923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>416160</xdr:colOff>
+      <xdr:colOff>415800</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -977,7 +939,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8472240" cy="9946080"/>
+          <a:ext cx="8471880" cy="9945720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,10 +1065,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E3"/>
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,708 +1095,690 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6" t="n">
+        <f aca="true">TODAY()</f>
+        <v>45846</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="8" t="n">
+        <f aca="false">C2+4</f>
+        <v>45850</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <f aca="false">C3+45</f>
+        <v>45895</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <f aca="true">TODAY()</f>
-        <v>45844</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <f aca="false">C4+4</f>
-        <v>45848</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <f aca="false">C5+45</f>
-        <v>45893</v>
-      </c>
-      <c r="E6" s="9" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="E10" s="9" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9"/>
+      <c r="E11" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="11"/>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
+      <c r="C13" s="9"/>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="11"/>
-      <c r="E15" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="E16" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="E17" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1222222</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>3222223</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>1222222</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>3222223</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="2" t="n">
+        <f aca="false">C20</f>
+        <v>1222222</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="9" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2" t="str">
+        <f aca="false">C19</f>
+        <v>WORKLIMATE</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="2" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="9" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="2" t="n">
-        <f aca="false">C22</f>
-        <v>1222222</v>
-      </c>
-      <c r="E27" s="9" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="2" t="str">
-        <f aca="false">C21</f>
-        <v>WORKLIMATE</v>
-      </c>
-      <c r="E28" s="9" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="2" t="s">
+      <c r="E31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="13" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="2" t="n">
+        <v>12334</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="13" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="2" t="n">
+        <v>234444</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2" t="n">
-        <v>12334</v>
-      </c>
-      <c r="E35" s="13" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="2" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="13" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="13" t="s">
+      <c r="E40" s="7" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="2" t="n">
-        <v>234444</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="2" t="n">
+        <v>12344444</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="9" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E47" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="2" t="n">
-        <v>12344444</v>
-      </c>
-      <c r="E45" s="9" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="6" t="n">
+        <v>26146</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="7" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="9" t="s">
+      <c r="E49" s="13" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="8" t="n">
-        <v>26146</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="14" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="2" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="14" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="14" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="14" t="s">
+      <c r="E57" s="13" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="6" t="n">
+        <v>25153</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="8" t="n">
-        <v>25153</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E62" s="16" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="2" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="16" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="16" t="s">
+      <c r="E67" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="16" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="16" t="s">
+      <c r="E68" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="16" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="15" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E68" s="16" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="2" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="17" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="17" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="17" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="17" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="17" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="17" t="s">
+      <c r="E77" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="17" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="17" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="17" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="18" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E78" s="17" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="19" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="19" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="19" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="19" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="19" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="19" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="19" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="19" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="19" t="s">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="19" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="7" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="7" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="7" t="s">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="7" t="s">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="7" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="7" t="s">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="7" t="s">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="2"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C57" r:id="rId1" display="marco.morabito@cnr.it"/>
-    <hyperlink ref="C68" r:id="rId2" display="francesco.sabatini@cnr.it"/>
-    <hyperlink ref="C78" r:id="rId3" display="direttore@ibe.cnr.it"/>
+    <hyperlink ref="C56" r:id="rId1" display="marco.morabito@cnr.it"/>
+    <hyperlink ref="C67" r:id="rId2" display="francesco.sabatini@cnr.it"/>
+    <hyperlink ref="C77" r:id="rId3" display="direttore@ibe.cnr.it"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1854,7 +1798,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="E2:E3 D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1866,78 +1810,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>158</v>
+      <c r="D2" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>158</v>
+      <c r="D3" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>158</v>
+      <c r="D4" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>158</v>
+      <c r="D5" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1965,28 +1909,28 @@
   <dimension ref="A64:F86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="1" sqref="E2:E3 A64"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
-        <v>168</v>
+      <c r="A65" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1995,8 +1939,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23" t="s">
-        <v>169</v>
+      <c r="A66" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2005,8 +1949,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24" t="s">
-        <v>170</v>
+      <c r="A67" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2016,7 +1960,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2025,8 +1969,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="23" t="s">
-        <v>172</v>
+      <c r="A69" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2035,8 +1979,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
-        <v>173</v>
+      <c r="A70" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2046,7 +1990,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2056,7 +2000,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2066,7 +2010,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2075,8 +2019,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="s">
-        <v>177</v>
+      <c r="A74" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2086,7 +2030,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2095,8 +2039,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23" t="s">
-        <v>179</v>
+      <c r="A76" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2105,8 +2049,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24" t="s">
-        <v>180</v>
+      <c r="A77" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2116,7 +2060,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2125,8 +2069,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24" t="s">
-        <v>182</v>
+      <c r="A79" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2135,8 +2079,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23" t="s">
-        <v>183</v>
+      <c r="A80" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2146,7 +2090,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2156,7 +2100,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2166,7 +2110,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2175,8 +2119,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="23" t="s">
-        <v>187</v>
+      <c r="A84" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2186,7 +2130,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2196,7 +2140,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -355,6 +355,36 @@
   </si>
   <si>
     <t xml:space="preserve">mail_contatto_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nome_cognome_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data_nascita_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luogo_nascita_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CF_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sede_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> firma_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> img_documento_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazioni_partecipazione_associazioni_organizzazioni_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_contatto_supportoRUP</t>
   </si>
   <si>
     <t xml:space="preserve">Ing. Beniamino Gioli</t>
@@ -651,7 +681,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +708,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFACB20C"/>
+        <bgColor rgb="FF81D41A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFAA95"/>
         <bgColor rgb="FFFFB66C"/>
       </patternFill>
@@ -697,7 +733,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFACB20C"/>
       </patternFill>
     </fill>
     <fill>
@@ -747,7 +783,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -820,6 +856,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -828,15 +868,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -862,7 +902,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FFACB20C"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB4C7DC"/>
@@ -923,9 +963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>415800</xdr:colOff>
+      <xdr:colOff>415440</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -939,7 +979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8471880" cy="9945720"/>
+          <a:ext cx="8471520" cy="9945360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,10 +1105,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1603,161 +1643,171 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="0"/>
+      <c r="E68" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="16" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0"/>
+      <c r="E69" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="16" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0"/>
+      <c r="E70" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="16" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="0"/>
+      <c r="E71" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="16" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0"/>
+      <c r="E72" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="16" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0"/>
+      <c r="E73" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="16" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0"/>
+      <c r="E74" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="16" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0"/>
+      <c r="E75" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="16" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0"/>
+      <c r="E76" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="16" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0"/>
+      <c r="E77" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="14" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E78" s="17" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="10" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="10" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="10" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="10" t="s">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="10" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="10" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="10" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="10" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="10" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="10" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="18" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1771,14 +1821,64 @@
         <v>144</v>
       </c>
     </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="2"/>
+      <c r="E107" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" display="marco.morabito@cnr.it"/>
     <hyperlink ref="C67" r:id="rId2" display="francesco.sabatini@cnr.it"/>
-    <hyperlink ref="C77" r:id="rId3" display="direttore@ibe.cnr.it"/>
+    <hyperlink ref="C87" r:id="rId3" display="direttore@ibe.cnr.it"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1798,7 +1898,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="F68:F70 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1810,78 +1910,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>153</v>
+      <c r="D2" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>153</v>
+      <c r="D3" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>153</v>
+      <c r="D4" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>153</v>
+      <c r="D5" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1909,28 +2009,28 @@
   <dimension ref="A64:F86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="1" sqref="F68:F70 A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="s">
-        <v>163</v>
+      <c r="A65" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1939,8 +2039,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21" t="s">
-        <v>164</v>
+      <c r="A66" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1949,8 +2049,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="s">
-        <v>165</v>
+      <c r="A67" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1960,7 +2060,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1969,8 +2069,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="21" t="s">
-        <v>167</v>
+      <c r="A69" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1979,8 +2079,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="s">
-        <v>168</v>
+      <c r="A70" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1990,7 +2090,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2000,7 +2100,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2010,7 +2110,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2019,8 +2119,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
-        <v>172</v>
+      <c r="A74" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2030,7 +2130,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2039,8 +2139,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
-        <v>174</v>
+      <c r="A76" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2049,8 +2149,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="s">
-        <v>175</v>
+      <c r="A77" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2060,7 +2160,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2069,8 +2169,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="s">
-        <v>177</v>
+      <c r="A79" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2079,8 +2179,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="21" t="s">
-        <v>178</v>
+      <c r="A80" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2090,7 +2190,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2100,7 +2200,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2110,7 +2210,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2119,8 +2219,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="21" t="s">
-        <v>182</v>
+      <c r="A84" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2130,7 +2230,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2140,7 +2240,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dati_generali_procedura" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="generazioni_offerte" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="schema_generale_procedura" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="ordine" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="219">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -607,17 +608,92 @@
   </si>
   <si>
     <t xml:space="preserve">Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETTERA D'ORDINE/CONTRATTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spett.le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragione sociale OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirizzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF/P.IVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEC: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rif.: provvedimento prot. [COMPLETARE] con cui l’Ente ha disposto l’affidamento del presente appalto di servizi/forniture di cui trattasi in favore del Contraente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrizione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prezzo unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrizione fornitura o servizio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUOGO DI CONSEGNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imponibile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 22% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODICE UNIVOCO UFFICIO (CUU): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riferimenti:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dott. ______________ - Tel. _______ e-mail: ______________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(eventuale) Il Contraente a garanzia dell’adempimento di tutte le obbligazioni del presente atto ha costituito la garanzia definitiva [COMPLETARE] di € [COMPLETARE] (euro XXXXXXXX), mediante cauzione/fideiussione agli atti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Direttore/Dirigente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-410]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="&quot;€ &quot;#,##0.00;&quot;-€ &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -677,6 +753,76 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -749,12 +895,117 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="double"/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="double"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="double"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="double"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom style="double"/>
       <diagonal/>
     </border>
   </borders>
@@ -783,7 +1034,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -879,6 +1130,226 @@
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -939,7 +1410,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF17375E"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -963,9 +1434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>415440</xdr:colOff>
+      <xdr:colOff>415080</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,7 +1450,159 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8471520" cy="9945360"/>
+          <a:ext cx="8471160" cy="9945000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1" name="Connettore 1 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6544440" y="7465320"/>
+          <a:ext cx="360" cy="360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>415800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>197280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>785520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 2" descr="Immagine che contiene testo&#10;&#10;Descrizione generata automaticamente"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1523160" y="104040"/>
+          <a:ext cx="3910320" cy="843480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>813240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>813240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connettore 1 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74520" y="975240"/>
+          <a:ext cx="6477840" cy="360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="002f5f"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805320</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9786600"/>
+          <a:ext cx="6373800" cy="528480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1107,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68:F70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1643,61 +2266,61 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0"/>
+      <c r="C68" s="1"/>
       <c r="E68" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0"/>
+      <c r="C69" s="1"/>
       <c r="E69" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="0"/>
+      <c r="C70" s="1"/>
       <c r="E70" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="0"/>
+      <c r="C71" s="1"/>
       <c r="E71" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0"/>
+      <c r="C72" s="1"/>
       <c r="E72" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="0"/>
+      <c r="C73" s="1"/>
       <c r="E73" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0"/>
+      <c r="C74" s="1"/>
       <c r="E74" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="0"/>
+      <c r="C75" s="1"/>
       <c r="E75" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="0"/>
+      <c r="C76" s="1"/>
       <c r="E76" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="0"/>
+      <c r="C77" s="1"/>
       <c r="E77" s="16" t="s">
         <v>120</v>
       </c>
@@ -1898,7 +2521,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="F68:F70 D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2009,7 +2632,7 @@
   <dimension ref="A64:F86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="1" sqref="F68:F70 A64"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2258,4 +2881,744 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:M50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="24" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="24" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="24" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="24" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="24" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="24" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="24" width="1.42"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="49" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="54"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="49" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="49" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="49" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="54"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="58" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="54"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="54"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="54"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+    </row>
+    <row r="40" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="77"/>
+    </row>
+    <row r="50" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:D12"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="I37:L39"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B50:L50"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="dati_generali_procedura" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="210">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -37,25 +37,22 @@
     <t xml:space="preserve">nome_variabili</t>
   </si>
   <si>
-    <t xml:space="preserve">Anno procedura</t>
+    <t xml:space="preserve">note</t>
   </si>
   <si>
     <t xml:space="preserve">data_oggi</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome Richiedente</t>
-  </si>
-  <si>
     <t xml:space="preserve">data_rda</t>
   </si>
   <si>
-    <t xml:space="preserve">Sede IBE procedura</t>
-  </si>
-  <si>
     <t xml:space="preserve">data_scadenza</t>
   </si>
   <si>
-    <t xml:space="preserve">Cognome Richiedente</t>
+    <t xml:space="preserve">data_scadenza_offerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variabili legate al servizio o alla fornitura</t>
   </si>
   <si>
     <t xml:space="preserve">fornitura</t>
@@ -64,7 +61,10 @@
     <t xml:space="preserve"> servizio_fornitura</t>
   </si>
   <si>
-    <t xml:space="preserve">Qualifica Richiedente</t>
+    <t xml:space="preserve"> booleana o servizio o fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisto di 10 PC</t>
   </si>
   <si>
     <t xml:space="preserve">descrizione_servizio_fornitura</t>
@@ -76,18 +76,12 @@
     <t xml:space="preserve">breve_descrizione_caratteristiche_prestazioni_acquisizione_ bene_servizio</t>
   </si>
   <si>
-    <t xml:space="preserve">Mail contatto richiedente</t>
+    <t xml:space="preserve">Necessità impellenti</t>
   </si>
   <si>
     <t xml:space="preserve">breve_descrizione_motivazione_acquisizione_ bene_servizio</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome RUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisto di 10 PC</t>
-  </si>
-  <si>
     <t xml:space="preserve">oggetto_fornitura_servizio </t>
   </si>
   <si>
@@ -100,60 +94,36 @@
     <t xml:space="preserve">clausola_cam </t>
   </si>
   <si>
-    <t xml:space="preserve">Cartella di generazione documenti</t>
-  </si>
-  <si>
     <t xml:space="preserve">clausola_servizi_fornitura </t>
   </si>
   <si>
     <t xml:space="preserve">dichiarazione_deroga_MEPA </t>
   </si>
   <si>
-    <t xml:space="preserve">Progetto</t>
-  </si>
-  <si>
     <t xml:space="preserve">dichiarazione_mancata_consip_informatica</t>
   </si>
   <si>
-    <t xml:space="preserve">CUP progetto</t>
-  </si>
-  <si>
     <t xml:space="preserve">dichiarazione_valore_affidamento</t>
   </si>
   <si>
-    <t xml:space="preserve">ID progetto ( ex GAE)</t>
-  </si>
-  <si>
     <t xml:space="preserve">dichiarazione_motivo_deroga_principio_rotazione</t>
   </si>
   <si>
     <t xml:space="preserve">importo_massimo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
     <t xml:space="preserve">quantita</t>
   </si>
   <si>
-    <t xml:space="preserve">Oggetto della fornitura</t>
-  </si>
-  <si>
     <t xml:space="preserve">WORKLIMATE</t>
   </si>
   <si>
     <t xml:space="preserve">acronimo_progetto</t>
   </si>
   <si>
-    <t xml:space="preserve">Oggetto esteso fornitura</t>
-  </si>
-  <si>
     <t xml:space="preserve"> numero_CUP</t>
   </si>
   <si>
-    <t xml:space="preserve">Pagina URP</t>
-  </si>
-  <si>
     <t xml:space="preserve">numero_CIG</t>
   </si>
   <si>
@@ -185,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">FORNITURA_SERVIZIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variabili legate al progetto</t>
   </si>
   <si>
     <t xml:space="preserve">voce_piano_dei_conti</t>
@@ -693,7 +666,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="&quot;€ &quot;#,##0.00;&quot;-€ &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -716,12 +689,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -736,15 +703,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1034,7 +1001,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1048,14 +1015,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1063,7 +1022,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1075,47 +1034,51 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1131,11 +1094,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1143,211 +1110,207 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1410,7 +1373,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF17375E"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -1434,9 +1397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>415080</xdr:colOff>
+      <xdr:colOff>413640</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1450,7 +1413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8471160" cy="9945000"/>
+          <a:ext cx="8469720" cy="9943560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,9 +1476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>785520</xdr:rowOff>
+      <xdr:rowOff>784080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1529,7 +1492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1523160" y="104040"/>
-          <a:ext cx="3910320" cy="843480"/>
+          <a:ext cx="3908880" cy="842040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,9 +1549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>805320</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>803880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1602,7 +1565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9786600"/>
-          <a:ext cx="6373800" cy="528480"/>
+          <a:ext cx="6372360" cy="527040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,16 +1691,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="59.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="76.92"/>
@@ -1747,761 +1710,739 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <f aca="true">TODAY()</f>
         <v>45846</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="6" t="n">
         <f aca="false">C2+4</f>
         <v>45850</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="6" t="n">
         <f aca="false">C3+45</f>
         <v>45895</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="6" t="n">
+        <f aca="false">C2+10</f>
+        <v>45856</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="9" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7"/>
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="7"/>
+      <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="9"/>
-      <c r="E11" s="7" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7"/>
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7"/>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="9"/>
-      <c r="E13" s="7" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="E15" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="n">
+        <v>1222222</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2" t="n">
+        <v>3222223</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>1222222</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>3222223</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2" t="n">
+        <f aca="false">C21</f>
+        <v>1222222</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2" t="str">
         <f aca="false">C20</f>
-        <v>1222222</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="2" t="str">
-        <f aca="false">C19</f>
         <v>WORKLIMATE</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="12" t="s">
-        <v>54</v>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="12" t="s">
-        <v>55</v>
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="12" t="s">
-        <v>56</v>
+      <c r="E30" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>58</v>
+      <c r="E31" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="2" t="n">
+        <v>12334</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="2" t="n">
+        <v>234444</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="2" t="n">
-        <v>12334</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="2" t="n">
-        <v>234444</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="2" t="n">
         <v>12344444</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="7" t="s">
-        <v>79</v>
+      <c r="E45" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>81</v>
+      <c r="E47" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="6" t="n">
+      <c r="C48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="4" t="n">
         <v>26146</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>84</v>
+      <c r="E49" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="13" t="s">
-        <v>89</v>
+      <c r="C52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="13" t="s">
-        <v>90</v>
+      <c r="E53" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="13" t="s">
-        <v>91</v>
+      <c r="E54" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="13" t="s">
-        <v>92</v>
+      <c r="E55" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>94</v>
+      <c r="E56" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>96</v>
+      <c r="C57" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="6" t="n">
+      <c r="C59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="4" t="n">
         <v>25153</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>100</v>
+      <c r="E60" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="15" t="s">
-        <v>105</v>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="15" t="s">
-        <v>106</v>
+      <c r="E64" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="15" t="s">
-        <v>107</v>
+      <c r="E65" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="15" t="s">
-        <v>108</v>
+      <c r="E66" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>110</v>
+      <c r="E67" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="E68" s="16" t="s">
-        <v>111</v>
+      <c r="C68" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="1"/>
-      <c r="E69" s="16" t="s">
-        <v>112</v>
+      <c r="E69" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="1"/>
-      <c r="E70" s="16" t="s">
-        <v>113</v>
+      <c r="E70" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="1"/>
-      <c r="E71" s="16" t="s">
-        <v>114</v>
+      <c r="E71" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="1"/>
-      <c r="E72" s="16" t="s">
-        <v>115</v>
+      <c r="E72" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1"/>
-      <c r="E73" s="16" t="s">
-        <v>116</v>
+      <c r="E73" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="1"/>
-      <c r="E74" s="16" t="s">
-        <v>117</v>
+      <c r="E74" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="1"/>
-      <c r="E75" s="16" t="s">
-        <v>118</v>
+      <c r="E75" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="1"/>
-      <c r="E76" s="16" t="s">
-        <v>119</v>
+      <c r="E76" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="1"/>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="1"/>
+      <c r="E78" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="2" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="17" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="17" t="s">
+      <c r="E88" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="17" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="17" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="17" t="s">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="17" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="17" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="17" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="17" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="14" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="17" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="18" t="s">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="17" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C56" r:id="rId1" display="marco.morabito@cnr.it"/>
-    <hyperlink ref="C67" r:id="rId2" display="francesco.sabatini@cnr.it"/>
-    <hyperlink ref="C87" r:id="rId3" display="direttore@ibe.cnr.it"/>
+    <hyperlink ref="C57" r:id="rId1" display="marco.morabito@cnr.it"/>
+    <hyperlink ref="C68" r:id="rId2" display="francesco.sabatini@cnr.it"/>
+    <hyperlink ref="C88" r:id="rId3" display="direttore@ibe.cnr.it"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2533,78 +2474,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>163</v>
+      <c r="D2" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>163</v>
+      <c r="D3" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>163</v>
+      <c r="D4" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>163</v>
+      <c r="D5" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2638,22 +2579,22 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>172</v>
+      <c r="A64" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21" t="s">
-        <v>173</v>
+      <c r="A65" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2662,8 +2603,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="s">
-        <v>174</v>
+      <c r="A66" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2672,8 +2613,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23" t="s">
-        <v>175</v>
+      <c r="A67" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2683,7 +2624,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2692,8 +2633,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
-        <v>177</v>
+      <c r="A69" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2702,8 +2643,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="s">
-        <v>178</v>
+      <c r="A70" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2713,7 +2654,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2723,7 +2664,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2733,7 +2674,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2742,8 +2683,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="21" t="s">
-        <v>182</v>
+      <c r="A74" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2753,7 +2694,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2762,8 +2703,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22" t="s">
-        <v>184</v>
+      <c r="A76" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2772,8 +2713,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="23" t="s">
-        <v>185</v>
+      <c r="A77" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2783,7 +2724,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2792,8 +2733,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="23" t="s">
-        <v>187</v>
+      <c r="A79" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2802,8 +2743,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
-        <v>188</v>
+      <c r="A80" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2813,7 +2754,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2823,7 +2764,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2833,7 +2774,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2842,8 +2783,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22" t="s">
-        <v>192</v>
+      <c r="A84" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2853,7 +2794,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2863,7 +2804,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2890,659 +2831,659 @@
   </sheetPr>
   <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="24" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="24" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="24" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="24" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="24" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="24" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="24" width="1.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="23" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="23" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="1.42"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31" t="s">
+      <c r="C16" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="D16" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="39" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="39" t="s">
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="48" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="48" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="53"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="48" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="53"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="57" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="40" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="42" t="s">
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="53"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="45" t="s">
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="53"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46" t="s">
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+    </row>
+    <row r="40" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="M16" s="48"/>
-    </row>
-    <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51" t="s">
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="49" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="49" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="49" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="49" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="49" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="54"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="49" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="54"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="49" t="n">
-        <v>10</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="54"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="49" t="n">
-        <v>11</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="54"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="49" t="n">
-        <v>12</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="54"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="49" t="n">
-        <v>13</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="54"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="49" t="n">
-        <v>14</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="54"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="58" t="n">
-        <v>15</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="54"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="54"/>
-    </row>
-    <row r="33" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="54"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-    </row>
-    <row r="40" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="77"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="76"/>
     </row>
     <row r="50" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="78"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="65">

--- a/template.xlsx
+++ b/template.xlsx
@@ -1397,9 +1397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>413640</xdr:colOff>
+      <xdr:colOff>412920</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1413,7 +1413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8469720" cy="9943560"/>
+          <a:ext cx="8469000" cy="9942840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,9 +1476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>784080</xdr:rowOff>
+      <xdr:rowOff>783360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1492,7 +1492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1523160" y="104040"/>
-          <a:ext cx="3908880" cy="842040"/>
+          <a:ext cx="3908160" cy="841320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,9 +1549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>803880</xdr:colOff>
+      <xdr:colOff>803160</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1565,7 +1565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9786600"/>
-          <a:ext cx="6372360" cy="527040"/>
+          <a:ext cx="6371640" cy="526320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,8 +1693,8 @@
   </sheetPr>
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1735,8 +1735,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="6" t="n">
-        <f aca="false">C2+4</f>
-        <v>45850</v>
+        <v>45302</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -1744,7 +1743,6 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="6" t="n">
-        <f aca="false">C3+45</f>
         <v>45895</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1753,8 +1751,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="6" t="n">
-        <f aca="false">C2+10</f>
-        <v>45856</v>
+        <v>45973</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>

--- a/template.xlsx
+++ b/template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="223">
   <si>
     <t xml:space="preserve">Procedura acquisti sotto 40K</t>
   </si>
@@ -58,54 +58,181 @@
     <t xml:space="preserve">fornitura</t>
   </si>
   <si>
-    <t xml:space="preserve"> servizio_fornitura</t>
+    <t xml:space="preserve">servizio_fornitura</t>
   </si>
   <si>
     <t xml:space="preserve"> booleana o servizio o fornitura</t>
   </si>
   <si>
+    <t xml:space="preserve">di 10 PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descrizione_servizio_fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer da tavolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descrizione_caratteristiche_prestazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per il necessario svolgimento del progetto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descrizione_motivazione_acquisizione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presso l’area della ricerca di Firenze in via Madonna del Piano 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luogo_servizio_fornitura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acquisto di 10 PC</t>
   </si>
   <si>
-    <t xml:space="preserve">descrizione_servizio_fornitura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer da tavolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breve_descrizione_caratteristiche_prestazioni_acquisizione_ bene_servizio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necessità impellenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breve_descrizione_motivazione_acquisizione_ bene_servizio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oggetto_fornitura_servizio </t>
+    <t xml:space="preserve">oggetto_fornitura_servizio</t>
   </si>
   <si>
     <t xml:space="preserve">Acquisto di 10 PC comprensivi di software e corredati da accessori con le seguenti caratteristiche</t>
   </si>
   <si>
-    <t xml:space="preserve">oggetto_esteso_fornitura_servizio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">clausola_cam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">clausola_servizi_fornitura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dichiarazione_deroga_MEPA </t>
+    <t xml:space="preserve">oggetto_esteso_fornitura_servizio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clausola_cam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clausola_servizi_fornitura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he per i beni o servizi di cui sopra sussiste deroga di ricorso al MEPA e ai sistemi telematici regionali (art. 1, comma 450, L. n. 296/2006) in quanto acquisto d’importo inferiore a 5000 euro (fino al 30/06/2025) oltre ad essere beni funzionalmente destinati all’attività di ricerca;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_deroga_MEPA</t>
   </si>
   <si>
     <t xml:space="preserve">dichiarazione_mancata_consip_informatica</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Es: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">La mancata adesione alle convenzioni CONSIP è dovuta a ______(</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fornire motivazione</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">indagine esplorativa di mercato volta a raccogliere preventivi;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_individuazione_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichiarazione_individuazione_preventiva_OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">che l’operatore economico proposto ha adeguate capacità economico-finanziaria e/o tecnico- professionali in quanto possiede esperienze pregresse idonee all’esecuzione della prestazione contrattuale poiché ___________(descrivere) per es.: all’azienda, oltre ad essere attiva nel settore dal _______ nel campo della ___________, sono state già affidate forniture da parte di altri istituti appartenenti al CNR/ da parte di altri enti pubblici) [ per dimostrare le esperienze pregresse è possibile far riferimento a precedenti ordini: della Stazione Appaltante; del CNR tramite sito URP; di tutti gli enti pubblici tramite sito https://dati.anticorruzione.it/superset/dashboard/appalti]</t>
+  </si>
+  <si>
     <t xml:space="preserve">dichiarazione_valore_affidamento</t>
   </si>
   <si>
+    <t xml:space="preserve">dichiarazione_non_imponibile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">oppure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> se progetto europeo indicare se non Imponibile ai sensi dell’art. 72 - DPR 633/72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I beni di cui sopra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">godono di deroga al principio di rotazione in quanto</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> l’importo dell’affidamento è inferiore a euro 5.000,00.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">dichiarazione_motivo_deroga_principio_rotazione</t>
   </si>
   <si>
@@ -121,7 +248,7 @@
     <t xml:space="preserve">acronimo_progetto</t>
   </si>
   <si>
-    <t xml:space="preserve"> numero_CUP</t>
+    <t xml:space="preserve">cup_progetto</t>
   </si>
   <si>
     <t xml:space="preserve">numero_CIG</t>
@@ -133,16 +260,16 @@
     <t xml:space="preserve">referente_stazione_appaltante </t>
   </si>
   <si>
-    <t xml:space="preserve">DBAXXXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DBA_progetto</t>
+    <t xml:space="preserve">DBA-XXXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBA_progetto</t>
   </si>
   <si>
     <t xml:space="preserve">beni</t>
   </si>
   <si>
-    <t xml:space="preserve">beni_servizi </t>
+    <t xml:space="preserve">beni_servizi</t>
   </si>
   <si>
     <t xml:space="preserve">NUMERO_CUP</t>
@@ -160,6 +287,9 @@
     <t xml:space="preserve">Variabili legate al progetto</t>
   </si>
   <si>
+    <t xml:space="preserve">Acquisto materiali</t>
+  </si>
+  <si>
     <t xml:space="preserve">voce_piano_dei_conti</t>
   </si>
   <si>
@@ -175,10 +305,7 @@
     <t xml:space="preserve">numero_COAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Acquisto materiali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voce_costo_COAN </t>
+    <t xml:space="preserve">voce_costo_COAN</t>
   </si>
   <si>
     <t xml:space="preserve">codice_CPV</t>
@@ -208,10 +335,10 @@
     <t xml:space="preserve">pincopallino1 SRL</t>
   </si>
   <si>
-    <t xml:space="preserve">dichiarazione_individuazione_OE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">via firenza 346</t>
+    <t xml:space="preserve">nome_OE_scelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via firenze 346, 59100, Prato </t>
   </si>
   <si>
     <t xml:space="preserve">indirizzo_OE_scelta</t>
@@ -232,7 +359,7 @@
     <t xml:space="preserve">piva_OE_scelta</t>
   </si>
   <si>
-    <t xml:space="preserve"> codice_CNEL</t>
+    <t xml:space="preserve">codice_CNEL</t>
   </si>
   <si>
     <t xml:space="preserve">estratti_CNEL</t>
@@ -265,10 +392,10 @@
     <t xml:space="preserve">sede_richiedente</t>
   </si>
   <si>
-    <t xml:space="preserve"> firma_richiedente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> img_documento_richiedente</t>
+    <t xml:space="preserve">firma_richiedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img_documento_richiedente</t>
   </si>
   <si>
     <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_richiedente</t>
@@ -307,16 +434,13 @@
     <t xml:space="preserve"> CF_RUP</t>
   </si>
   <si>
-    <t xml:space="preserve">Senso Fiorentino</t>
-  </si>
-  <si>
     <t xml:space="preserve">sede_RUP</t>
   </si>
   <si>
-    <t xml:space="preserve"> firma_RUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> img_documento_RUP</t>
+    <t xml:space="preserve">firma_RUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img_documento_RUP</t>
   </si>
   <si>
     <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_RUP</t>
@@ -346,10 +470,10 @@
     <t xml:space="preserve">sede_supportoRUP</t>
   </si>
   <si>
-    <t xml:space="preserve"> firma_supportoRUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> img_documento_supportoRUP</t>
+    <t xml:space="preserve">firma_supportoRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img_documento_supportoRUP</t>
   </si>
   <si>
     <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_supportoRUP</t>
@@ -379,10 +503,10 @@
     <t xml:space="preserve">sede_direttore</t>
   </si>
   <si>
-    <t xml:space="preserve"> firma_direttore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> img_documento_direttore</t>
+    <t xml:space="preserve">firma_direttore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img_documento_direttore</t>
   </si>
   <si>
     <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_direttore</t>
@@ -412,10 +536,10 @@
     <t xml:space="preserve">sede_RSS</t>
   </si>
   <si>
-    <t xml:space="preserve"> firma_RSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> img_documento_RSS</t>
+    <t xml:space="preserve">firma_RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img_documento_RSS</t>
   </si>
   <si>
     <t xml:space="preserve">dichiarazioni_comunicazione_incarichi_RSS</t>
@@ -427,7 +551,7 @@
     <t xml:space="preserve">mail_contatto_RSS</t>
   </si>
   <si>
-    <t xml:space="preserve">ulteriori _riferimenti_normativi_attuativi_operativi</t>
+    <t xml:space="preserve">ulteriori_riferimenti_normativi_attuativi_operativi</t>
   </si>
   <si>
     <t xml:space="preserve">url_gara</t>
@@ -469,6 +593,9 @@
     <t xml:space="preserve">indirizzo_OE</t>
   </si>
   <si>
+    <t xml:space="preserve">sede_OE</t>
+  </si>
+  <si>
     <t xml:space="preserve">cap_OE</t>
   </si>
   <si>
@@ -485,6 +612,9 @@
   </si>
   <si>
     <t xml:space="preserve">via firenze 301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prato</t>
   </si>
   <si>
     <t xml:space="preserve">pincop@pec.it</t>
@@ -666,7 +796,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="&quot;€ &quot;#,##0.00;&quot;-€ &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -703,8 +833,47 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1001,7 +1170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,10 +1208,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1054,7 +1243,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1074,7 +1263,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1094,219 +1283,219 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1397,9 +1586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>412920</xdr:colOff>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1413,7 +1602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="83520"/>
-          <a:ext cx="8469000" cy="9942840"/>
+          <a:ext cx="8463600" cy="9937440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,9 +1665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>189720</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>783360</xdr:rowOff>
+      <xdr:rowOff>777960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1492,7 +1681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1523160" y="104040"/>
-          <a:ext cx="3908160" cy="841320"/>
+          <a:ext cx="3902760" cy="835920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,9 +1738,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:colOff>797760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1565,7 +1754,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9786600"/>
-          <a:ext cx="6371640" cy="526320"/>
+          <a:ext cx="6366240" cy="520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,10 +1880,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1704,6 +1893,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="59.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="76.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1917,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -1797,649 +1987,706 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7"/>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="7"/>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7"/>
       <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="7"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
       <c r="C16" s="7"/>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="C18" s="7"/>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="C19" s="7"/>
       <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+      <c r="C20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="2" t="n">
-        <v>1222222</v>
+        <v>36</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="2" t="n">
-        <v>3222223</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="s">
-        <v>38</v>
+      <c r="C25" s="2" t="n">
+        <v>1222222</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2" t="n">
-        <f aca="false">C21</f>
+        <v>3222223</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="2" t="n">
+        <f aca="false">C25</f>
         <v>1222222</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="2" t="str">
-        <f aca="false">C20</f>
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="2" t="str">
+        <f aca="false">C24</f>
         <v>WORKLIMATE</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="2" t="n">
-        <v>12334</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>52</v>
+      <c r="E34" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>54</v>
+      <c r="E35" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="11" t="s">
-        <v>55</v>
+      <c r="C36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="11" t="s">
-        <v>56</v>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="2" t="n">
+        <v>12334</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="2" t="n">
         <v>234444</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="2" t="n">
-        <v>12344444</v>
+      <c r="C45" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E47" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="4" t="n">
-        <v>26146</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>75</v>
+      <c r="C49" s="2" t="n">
+        <v>12344444</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>77</v>
+      <c r="E51" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="12" t="s">
-        <v>80</v>
+      <c r="C53" s="4" t="n">
+        <v>26146</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="12" t="s">
-        <v>81</v>
+      <c r="C54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="12" t="s">
-        <v>82</v>
+      <c r="C55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="12" t="s">
-        <v>83</v>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>85</v>
+      <c r="E57" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>87</v>
+      <c r="E58" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>89</v>
+      <c r="E59" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="4" t="n">
-        <v>25153</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>90</v>
+      <c r="E60" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>91</v>
+      <c r="C61" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="14" t="s">
-        <v>96</v>
+      <c r="C64" s="4" t="n">
+        <v>25153</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="14" t="s">
-        <v>97</v>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="14" t="s">
-        <v>98</v>
+      <c r="C66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="14" t="s">
-        <v>99</v>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>101</v>
+      <c r="E68" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="E69" s="15" t="s">
-        <v>102</v>
+      <c r="E69" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="E70" s="15" t="s">
-        <v>103</v>
+      <c r="E70" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="1"/>
-      <c r="E71" s="15" t="s">
-        <v>104</v>
+      <c r="E71" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="1"/>
-      <c r="E72" s="15" t="s">
-        <v>105</v>
+      <c r="C72" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1"/>
-      <c r="E73" s="15" t="s">
-        <v>106</v>
+      <c r="E73" s="20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="1"/>
-      <c r="E74" s="15" t="s">
-        <v>107</v>
+      <c r="E74" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="1"/>
-      <c r="E75" s="15" t="s">
-        <v>108</v>
+      <c r="E75" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="1"/>
-      <c r="E76" s="15" t="s">
-        <v>109</v>
+      <c r="E76" s="20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="1"/>
-      <c r="E77" s="15" t="s">
-        <v>110</v>
+      <c r="E77" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="1"/>
-      <c r="E78" s="15" t="s">
-        <v>111</v>
+      <c r="E78" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>113</v>
+      <c r="C79" s="1"/>
+      <c r="E79" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="16" t="s">
-        <v>114</v>
+      <c r="C80" s="1"/>
+      <c r="E80" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="16" t="s">
-        <v>115</v>
+      <c r="C81" s="1"/>
+      <c r="E81" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="16" t="s">
-        <v>116</v>
+      <c r="C82" s="1"/>
+      <c r="E82" s="20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="16" t="s">
-        <v>118</v>
+      <c r="E84" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="16" t="s">
-        <v>119</v>
+      <c r="E85" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="16" t="s">
-        <v>120</v>
+      <c r="E86" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="16" t="s">
-        <v>121</v>
+      <c r="C87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>123</v>
+      <c r="E88" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="17" t="s">
-        <v>124</v>
+      <c r="E89" s="21" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="17" t="s">
-        <v>125</v>
+      <c r="E90" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="17" t="s">
-        <v>126</v>
+      <c r="E91" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="17" t="s">
-        <v>127</v>
+      <c r="C92" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="17" t="s">
-        <v>128</v>
+      <c r="E93" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="17" t="s">
-        <v>129</v>
+      <c r="E94" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="17" t="s">
-        <v>130</v>
+      <c r="E95" s="22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="17" t="s">
-        <v>131</v>
+      <c r="E96" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="17" t="s">
-        <v>132</v>
+      <c r="E97" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="10" t="s">
-        <v>137</v>
+      <c r="E98" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="10" t="s">
-        <v>138</v>
+      <c r="E103" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="10" t="s">
-        <v>139</v>
+      <c r="E104" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="10" t="s">
-        <v>140</v>
+      <c r="E105" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="10" t="s">
-        <v>141</v>
+      <c r="E106" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="10" t="s">
-        <v>142</v>
+      <c r="E107" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="10" t="s">
-        <v>143</v>
+      <c r="E108" s="15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="10" t="s">
-        <v>144</v>
+      <c r="E109" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="2"/>
+      <c r="E110" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C57" r:id="rId1" display="marco.morabito@cnr.it"/>
-    <hyperlink ref="C68" r:id="rId2" display="francesco.sabatini@cnr.it"/>
-    <hyperlink ref="C88" r:id="rId3" display="direttore@ibe.cnr.it"/>
+    <hyperlink ref="F18" r:id="rId1" display="che l’operatore economico proposto ha adeguate capacità economico-finanziaria e/o tecnico- professionali in quanto possiede esperienze pregresse idonee all’esecuzione della prestazione contrattuale poiché ___________(descrivere) per es.: all’azienda, oltre ad essere attiva nel settore dal _______ nel campo della ___________, sono state già affidate forniture da parte di altri istituti appartenenti al CNR/ da parte di altri enti pubblici) [ per dimostrare le esperienze pregresse è possibile far riferimento a precedenti ordini: della Stazione Appaltante; del CNR tramite sito URP; di tutti gli enti pubblici tramite sito https://dati.anticorruzione.it/superset/dashboard/appalti]"/>
+    <hyperlink ref="C61" r:id="rId2" display="marco.morabito@cnr.it"/>
+    <hyperlink ref="C72" r:id="rId3" display="francesco.sabatini@cnr.it"/>
+    <hyperlink ref="C92" r:id="rId4" display="direttore@ibe.cnr.it"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2456,101 +2703,117 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>148</v>
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>154</v>
+      <c r="E2" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>154</v>
+      <c r="E3" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>154</v>
+      <c r="E4" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>59124</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>154</v>
+      <c r="E5" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="pincop@pec.it"/>
-    <hyperlink ref="D3" r:id="rId2" display="pincop@pec.it"/>
-    <hyperlink ref="D4" r:id="rId3" display="pincop@pec.it"/>
-    <hyperlink ref="D5" r:id="rId4" display="pincop@pec.it"/>
+    <hyperlink ref="E2" r:id="rId1" display="pincop@pec.it"/>
+    <hyperlink ref="E3" r:id="rId2" display="pincop@pec.it"/>
+    <hyperlink ref="E4" r:id="rId3" display="pincop@pec.it"/>
+    <hyperlink ref="E5" r:id="rId4" display="pincop@pec.it"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2576,22 +2839,22 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>163</v>
+      <c r="A64" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="s">
-        <v>164</v>
+      <c r="A65" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2600,8 +2863,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21" t="s">
-        <v>165</v>
+      <c r="A66" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2610,8 +2873,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="s">
-        <v>166</v>
+      <c r="A67" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2621,7 +2884,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2630,8 +2893,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="21" t="s">
-        <v>168</v>
+      <c r="A69" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2640,8 +2903,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="s">
-        <v>169</v>
+      <c r="A70" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2651,7 +2914,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2661,7 +2924,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2671,7 +2934,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2680,8 +2943,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
-        <v>173</v>
+      <c r="A74" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2691,7 +2954,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2700,8 +2963,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
-        <v>175</v>
+      <c r="A76" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2710,8 +2973,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="s">
-        <v>176</v>
+      <c r="A77" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2721,7 +2984,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2730,8 +2993,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="s">
-        <v>178</v>
+      <c r="A79" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2740,8 +3003,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="21" t="s">
-        <v>179</v>
+      <c r="A80" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2751,7 +3014,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2761,7 +3024,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2771,7 +3034,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2780,8 +3043,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="21" t="s">
-        <v>183</v>
+      <c r="A84" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2791,7 +3054,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2801,7 +3064,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2834,653 +3097,653 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="23" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="23" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="1.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="28" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="28" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="28" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="28" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="28" width="1.42"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="25"/>
+      <c r="B4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
+      <c r="B6" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
+      <c r="C14" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="M16" s="47"/>
+      <c r="B16" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="48" t="n">
+      <c r="B17" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="49" t="n">
+      <c r="C17" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="D17" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="48" t="n">
+      <c r="B18" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="48" t="n">
+      <c r="B19" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="48" t="n">
+      <c r="B20" s="53" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="48" t="n">
+      <c r="B21" s="53" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="48" t="n">
+      <c r="B22" s="53" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="48" t="n">
+      <c r="B23" s="53" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="48" t="n">
+      <c r="B24" s="53" t="n">
         <v>8</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="48" t="n">
+      <c r="B25" s="53" t="n">
         <v>9</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="48" t="n">
+      <c r="B26" s="53" t="n">
         <v>10</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="48" t="n">
+      <c r="B27" s="53" t="n">
         <v>11</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="48" t="n">
+      <c r="B28" s="53" t="n">
         <v>12</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="48" t="n">
+      <c r="B29" s="53" t="n">
         <v>13</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="48" t="n">
+      <c r="B30" s="53" t="n">
         <v>14</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="57" t="n">
+      <c r="B31" s="62" t="n">
         <v>15</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="53"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="53"/>
+      <c r="B32" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="53"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
+      <c r="B36" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
+      <c r="B37" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
+      <c r="B39" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
     </row>
     <row r="40" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
+      <c r="B40" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="76"/>
+      <c r="I42" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="81"/>
     </row>
     <row r="50" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="77"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="65">
